--- a/Prestamos 2.0/capacidad de pago.xlsx
+++ b/Prestamos 2.0/capacidad de pago.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\Prestamos 2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>alquiler de casa</t>
   </si>
@@ -138,24 +133,37 @@
   </si>
   <si>
     <t>Capacidad de pago</t>
+  </si>
+  <si>
+    <t>pasaje</t>
+  </si>
+  <si>
+    <t>prestamo electrodomestico</t>
+  </si>
+  <si>
+    <t>Cliente:</t>
+  </si>
+  <si>
+    <t>Cuota:</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>vladimir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,8 +176,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,18 +201,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -198,15 +215,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -216,14 +289,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -319,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -496,272 +603,326 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="9">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3">
-        <f>SUM(D8:D100)</f>
-        <v>22185</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="D3" s="10">
+        <f>SUM(D10:D102)</f>
+        <v>23340</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5">
-        <f>(C2-C3)*0.35</f>
-        <v>985.24999999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="7" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="D4" s="10">
+        <f>(D2-D3)*0.4</f>
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="1" customFormat="1">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="17"/>
+      <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="17"/>
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D12" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="17"/>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="18"/>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="20"/>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="22"/>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="D19" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="D20" s="14">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="18"/>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D23" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="17"/>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="17"/>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="18"/>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="18"/>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="17"/>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="18"/>
+      <c r="C31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14">
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="20"/>
+      <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D35" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Prestamos 2.0/capacidad de pago.xlsx
+++ b/Prestamos 2.0/capacidad de pago.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>alquiler de casa</t>
   </si>
@@ -147,10 +148,16 @@
     <t>Cuota:</t>
   </si>
   <si>
-    <t>semanal</t>
-  </si>
-  <si>
-    <t>vladimir</t>
+    <t>padres</t>
+  </si>
+  <si>
+    <t>mantenimiento</t>
+  </si>
+  <si>
+    <t>quincenal</t>
+  </si>
+  <si>
+    <t>Leonel Flores Contreras: aprezio</t>
   </si>
 </sst>
 </file>
@@ -289,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -310,6 +317,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -635,7 +643,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
-        <v>37000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -643,8 +651,8 @@
         <v>36</v>
       </c>
       <c r="D3" s="10">
-        <f>SUM(D10:D102)</f>
-        <v>23340</v>
+        <f>SUM(D10:D103)</f>
+        <v>26100</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -653,7 +661,7 @@
       </c>
       <c r="D4" s="10">
         <f>(D2-D3)*0.4</f>
-        <v>5464</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -663,20 +671,20 @@
       <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12">
-        <v>1250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
@@ -691,18 +699,18 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="6" t="s">
         <v>4</v>
       </c>
@@ -711,32 +719,32 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="14">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14">
+        <v>7500</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14">
-        <v>6000</v>
-      </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -746,14 +754,14 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
@@ -762,70 +770,66 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="14">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="14">
-        <v>1200</v>
-      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="14">
-        <v>5200</v>
-      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="14">
-        <v>800</v>
-      </c>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="17"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14">
+        <v>1100</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
@@ -834,89 +838,104 @@
     <row r="26" spans="2:4">
       <c r="B26" s="18"/>
       <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="19"/>
+      <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="16" t="s">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="18"/>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="19"/>
+      <c r="C29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="16" t="s">
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="17"/>
-      <c r="C30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14">
+        <v>2500</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="18"/>
       <c r="C31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="19" t="s">
+      <c r="D32" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="20"/>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="21"/>
+      <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="14">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="20"/>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="21"/>
+      <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="20"/>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="21"/>
+      <c r="C36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B36"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B17"/>
@@ -926,4 +945,319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10">
+        <f>SUM(F11:F104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="D5" s="3"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="E6" s="3"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="1"/>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="D12" s="18"/>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="D13" s="18"/>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="D14" s="18"/>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="D15" s="19"/>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="D16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="21"/>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="23"/>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="19"/>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="18"/>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="19"/>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="18"/>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="18"/>
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="18"/>
+      <c r="E27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="19"/>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="19"/>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="18"/>
+      <c r="E32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="19"/>
+      <c r="E33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="21"/>
+      <c r="E35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="21"/>
+      <c r="E36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="21"/>
+      <c r="E37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="E38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="F41" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Prestamos 2.0/capacidad de pago.xlsx
+++ b/Prestamos 2.0/capacidad de pago.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>alquiler de casa</t>
   </si>
@@ -154,10 +153,10 @@
     <t>mantenimiento</t>
   </si>
   <si>
-    <t>quincenal</t>
-  </si>
-  <si>
-    <t>Leonel Flores Contreras: aprezio</t>
+    <t>Mathurin Dieuferne</t>
+  </si>
+  <si>
+    <t>diario</t>
   </si>
 </sst>
 </file>
@@ -621,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="A1:E40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -643,7 +642,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
-        <v>30000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -652,7 +651,7 @@
       </c>
       <c r="D3" s="10">
         <f>SUM(D10:D103)</f>
-        <v>26100</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -660,8 +659,8 @@
         <v>37</v>
       </c>
       <c r="D4" s="10">
-        <f>(D2-D3)*0.4</f>
-        <v>1560</v>
+        <f>(D2-D3)*0.35</f>
+        <v>3639.9999999999995</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -672,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="22"/>
     </row>
@@ -681,10 +680,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12">
-        <v>750</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
@@ -706,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -715,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -723,9 +722,7 @@
       <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
-        <v>1200</v>
-      </c>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18"/>
@@ -733,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="14">
-        <v>7500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -766,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="14">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -776,9 +773,7 @@
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14">
-        <v>1200</v>
-      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="19"/>
@@ -824,9 +819,7 @@
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="14">
-        <v>1100</v>
-      </c>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="18"/>
@@ -872,9 +865,7 @@
       <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="14">
-        <v>2500</v>
-      </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="18"/>
@@ -888,9 +879,7 @@
       <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="14">
-        <v>1000</v>
-      </c>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="20" t="s">
@@ -913,9 +902,7 @@
       <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="14">
-        <v>7000</v>
-      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="21"/>
@@ -945,319 +932,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="10">
-        <f>SUM(F11:F104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="D5" s="3"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="E6" s="3"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="1"/>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="D12" s="18"/>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="D13" s="18"/>
-      <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="D14" s="18"/>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="D15" s="19"/>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="D16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="21"/>
-      <c r="E17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="23"/>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="19"/>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="18"/>
-      <c r="E22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="19"/>
-      <c r="E23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="18"/>
-      <c r="E25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="18"/>
-      <c r="E26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="18"/>
-      <c r="E27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="D28" s="19"/>
-      <c r="E28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="19"/>
-      <c r="E30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" s="18"/>
-      <c r="E32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="19"/>
-      <c r="E33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="21"/>
-      <c r="E35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="21"/>
-      <c r="E36" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="21"/>
-      <c r="E37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="E38" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="F41" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Prestamos 2.0/capacidad de pago.xlsx
+++ b/Prestamos 2.0/capacidad de pago.xlsx
@@ -153,10 +153,10 @@
     <t>mantenimiento</t>
   </si>
   <si>
-    <t>Mathurin Dieuferne</t>
-  </si>
-  <si>
     <t>diario</t>
+  </si>
+  <si>
+    <t>Casimiro Luciano Contreras (Papito)</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,7 +621,7 @@
   <dimension ref="B1:H37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="D3" s="10">
         <f>SUM(D10:D103)</f>
-        <v>9600</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -660,7 +660,7 @@
       </c>
       <c r="D4" s="10">
         <f>(D2-D3)*0.35</f>
-        <v>3639.9999999999995</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -671,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="22"/>
     </row>
@@ -680,10 +680,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="14">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="14">
-        <v>1300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -722,7 +722,9 @@
       <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="18"/>
@@ -730,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="14">
-        <v>6000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -763,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -773,7 +775,9 @@
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14">
+        <v>300</v>
+      </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="19"/>
@@ -865,7 +869,9 @@
       <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="18"/>
